--- a/backup/TA Log Sheets Spring 2022.xlsx
+++ b/backup/TA Log Sheets Spring 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\Pharma\COPIT-TA-Tool-python\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esshariprasad/UH/Pharmacy/COPIT-TA-Tool-python/backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C449FF3-9594-4E0F-8C96-CFA1C69E19C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7BC60-BCED-474B-96D4-219D51A8D7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BBE8B55-1285-4D94-9DEB-F80CA3EC57F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1BBE8B55-1285-4D94-9DEB-F80CA3EC57F0}"/>
   </bookViews>
   <sheets>
     <sheet name="CordinatorTotal Course Hours" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
   <si>
     <t>Course Name</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Graduate course</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -509,8 +512,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8007,7 +8010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C51627E5-3108-49F5-B60E-78D8B7549F05}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Course Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C51627E5-3108-49F5-B60E-78D8B7549F05}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Course Name">
   <location ref="A1:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -8414,7 +8417,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36546825-A528-46E6-8B96-F0202F7C05CF}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36546825-A528-46E6-8B96-F0202F7C05CF}" name="PivotTable10" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Name">
   <location ref="A1:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -8603,7 +8606,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A657AB61-07E2-4EA5-92B3-0FE46F0E7FE4}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Course Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A657AB61-07E2-4EA5-92B3-0FE46F0E7FE4}" name="PivotTable11" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Course Name">
   <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -9098,17 +9101,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354928F0-E05A-4DEC-A40B-E6525D306CC4}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -9140,7 +9143,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -9180,7 +9183,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -9196,7 +9199,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -9212,7 +9215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -9244,7 +9247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -9324,7 +9327,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -9364,7 +9367,7 @@
         <v>173.75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -9380,7 +9383,7 @@
         <v>167.25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>54.65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>54.65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>212.03</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -9420,7 +9423,7 @@
         <v>210.03</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
@@ -9452,7 +9455,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
@@ -9476,7 +9479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
@@ -9500,7 +9503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>40</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -9540,7 +9543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -9548,7 +9551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>45</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>37</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>37</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>51</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>188.75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>171.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>23</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>24</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>54</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>55</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>56</v>
       </c>
@@ -9708,7 +9711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>40</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>57</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>58</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>59</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>60</v>
       </c>
@@ -9756,7 +9759,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>28</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>58</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>8</v>
       </c>
@@ -9780,7 +9783,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>9</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>61</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>47</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>62</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>63</v>
       </c>
@@ -9820,7 +9823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>64</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>16</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>65</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>66</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>67</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>68</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>69</v>
       </c>
@@ -9886,16 +9889,16 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B36"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -9919,7 +9922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -9935,7 +9938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -9943,7 +9946,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -9959,7 +9962,7 @@
         <v>93.779999999999987</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -9975,7 +9978,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -9991,7 +9994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>55.699999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
@@ -10031,7 +10034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>90</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -10071,7 +10074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -10111,7 +10114,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
@@ -10119,7 +10122,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -10143,7 +10146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -10151,7 +10154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -10159,7 +10162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>106.60000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -10196,13 +10199,13 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -10218,7 +10221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -10250,7 +10253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -10274,7 +10277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -10282,7 +10285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>173.75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>54.65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>212.03</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -10322,7 +10325,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -10338,7 +10341,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -10346,7 +10349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -10386,7 +10389,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -10402,7 +10405,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -10410,7 +10413,7 @@
         <v>188.75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -10426,7 +10429,7 @@
         <v>33.349999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -10458,7 +10461,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -10466,7 +10469,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -10482,7 +10485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -10513,207 +10516,265 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4307D3-5FCC-40A1-B42D-63CA1E60824F}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>395.64999999999992</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>264.89</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="5">
-        <v>153.44000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="6">
+        <v>133.44</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="5">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="5">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="6">
+        <v>74.5</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>146.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>43.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="6">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>44</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B2:B24)</f>
+        <v>1583.3799999999999</v>
       </c>
     </row>
   </sheetData>
